--- a/payment_module/Payment_Module_Testing.xlsx
+++ b/payment_module/Payment_Module_Testing.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UP2store\Desktop\testing\project\payment_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4392A9E-CF91-4333-9755-D591A1047431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF245CD-1458-435E-837E-6EC0DBD293B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="RTM" sheetId="3" r:id="rId3"/>
+    <sheet name="Defects" sheetId="4" r:id="rId3"/>
+    <sheet name="RTM" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
   <si>
     <t>Req ID</t>
   </si>
@@ -337,6 +338,105 @@
   </si>
   <si>
     <t>Receipt generated with correct ride ID and amount</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>TC-P11</t>
+  </si>
+  <si>
+    <t>Expired card, Amount: 60</t>
+  </si>
+  <si>
+    <t>Payment declined with expiration error</t>
+  </si>
+  <si>
+    <t>Payment processed successfully</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC-P12</t>
+  </si>
+  <si>
+    <t>Invalid CVV</t>
+  </si>
+  <si>
+    <t>Clear error message shown to user</t>
+  </si>
+  <si>
+    <t>Generic error message displayed</t>
+  </si>
+  <si>
+    <t>TC-P13</t>
+  </si>
+  <si>
+    <t>Two users pay same ride ID simultaneously</t>
+  </si>
+  <si>
+    <t>Submit payments at the same time</t>
+  </si>
+  <si>
+    <t>One payment succeeds, second is rejected</t>
+  </si>
+  <si>
+    <t>Both payments processed</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Related TC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>D-P-01</t>
+  </si>
+  <si>
+    <t>System allows payment with expired card</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>D-P-02</t>
+  </si>
+  <si>
+    <t>Error message for invalid CVV is unclear</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>D-P-03</t>
+  </si>
+  <si>
+    <t>Concurrent payments for same ride ID are not handled correctly</t>
   </si>
 </sst>
 </file>
@@ -360,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,18 +469,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF8064A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,34 +495,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,16 +523,16 @@
   <dxfs count="9">
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -480,16 +566,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -568,7 +654,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF9D300"/>
       <color rgb="FF8064A2"/>
+      <color rgb="FFC9A82D"/>
+      <color rgb="FFC4C135"/>
+      <color rgb="FFF6BB00"/>
+      <color rgb="FFFFC91D"/>
+      <color rgb="FFFFDE75"/>
+      <color rgb="FFFFD44B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -583,7 +676,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{039ABD88-EEBB-4BC8-BEC4-51C0BC516BC4}" name="Table3" displayName="Table3" ref="A1:C24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{039ABD88-EEBB-4BC8-BEC4-51C0BC516BC4}" name="Table3" displayName="Table3" ref="A1:C24" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A1:C24" xr:uid="{039ABD88-EEBB-4BC8-BEC4-51C0BC516BC4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4691453F-FF04-42FE-91D9-7D3C457F920B}" name="Req ID"/>
@@ -595,25 +688,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20027580-76E0-4D29-A1B8-ACE5AB4F458E}" name="Table2" displayName="Table2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:I11" xr:uid="{20027580-76E0-4D29-A1B8-ACE5AB4F458E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20027580-76E0-4D29-A1B8-ACE5AB4F458E}" name="Table2" displayName="Table2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:I15" xr:uid="{20027580-76E0-4D29-A1B8-ACE5AB4F458E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{709D9BD4-7B28-4621-96DF-3E15979FAAF2}" name="TC ID"/>
-    <tableColumn id="2" xr3:uid="{07624123-81F5-408A-8E67-F0A79C45E61C}" name="Req ID"/>
-    <tableColumn id="3" xr3:uid="{1CBCD251-EE26-4CF3-9BFD-D0B58846B494}" name="Module"/>
-    <tableColumn id="4" xr3:uid="{8966E409-3AB4-4EBC-B8B8-99EECF244E67}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{8827199D-12E5-4C5A-A407-82733E7B854E}" name="Input"/>
+    <tableColumn id="1" xr3:uid="{709D9BD4-7B28-4621-96DF-3E15979FAAF2}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{07624123-81F5-408A-8E67-F0A79C45E61C}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{1CBCD251-EE26-4CF3-9BFD-D0B58846B494}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{8966E409-3AB4-4EBC-B8B8-99EECF244E67}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{8827199D-12E5-4C5A-A407-82733E7B854E}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{500D940D-A6DA-4731-A5C4-D0C83AB914A3}" name="Steps"/>
-    <tableColumn id="7" xr3:uid="{D21E960A-26B4-46EC-B836-4F3A98823BE9}" name="Expected Result"/>
+    <tableColumn id="7" xr3:uid="{D21E960A-26B4-46EC-B836-4F3A98823BE9}" name="Column6"/>
     <tableColumn id="8" xr3:uid="{969671D5-17BD-4BEA-BE4A-FE7FB47F3644}" name="Actual Result"/>
     <tableColumn id="9" xr3:uid="{E0F4DCF6-12B7-4C66-8642-755337756D5B}" name="Status"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{284E3430-D561-4A5B-8710-9B8B657E8F7B}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8E17B8D7-E5D4-4339-BC6B-12876133BAAC}" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{8E17B8D7-E5D4-4339-BC6B-12876133BAAC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5DD5AA67-E6CA-46BB-BD8F-A07815B7F8C3}" name="Defect ID"/>
+    <tableColumn id="2" xr3:uid="{397B1151-4EB5-4B63-A447-4B23855DD6D1}" name="Related TC"/>
+    <tableColumn id="3" xr3:uid="{E581BC8D-ACAF-4AA7-B32C-ABD01BB1E6FB}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{57A262F3-7B49-4BED-A5F6-23DF91CFE91C}" name="Severity"/>
+    <tableColumn id="5" xr3:uid="{B3482733-ED8B-4A89-8E53-C16EF910AD18}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{284E3430-D561-4A5B-8710-9B8B657E8F7B}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:C24" xr:uid="{284E3430-D561-4A5B-8710-9B8B657E8F7B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F0AC9A01-DC47-4C5D-BD87-A0248B9BD366}" name="Req ID"/>
@@ -914,7 +1021,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,18 +1296,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,25 +1322,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -1242,58 +1350,54 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -1301,28 +1405,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
@@ -1330,10 +1434,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1342,16 +1446,16 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
@@ -1359,28 +1463,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
@@ -1388,10 +1492,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1400,16 +1504,16 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -1417,10 +1521,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -1429,106 +1533,213 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
       </c>
       <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
         <v>86</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>86</v>
       </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>87</v>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1540,11 +1751,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311D4B5B-5998-4E9A-AB29-235E8309015B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1859,7 @@
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
